--- a/language-tagger/lexiconVocabUpdated.xlsx
+++ b/language-tagger/lexiconVocabUpdated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="0" windowWidth="10680" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="2360" yWindow="0" windowWidth="10680" windowHeight="14260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="328">
   <si>
     <t>Latin</t>
   </si>
@@ -215,9 +215,6 @@
     <t>ⲓⲟⲩⲇⲁⲓⲁ</t>
   </si>
   <si>
-    <t>ⲓⲉⲣⲟⲥⲟⲗⲩⲙⲁ</t>
-  </si>
-  <si>
     <t>ⲓⲟⲣⲇⲁⲛⲏⲥ</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t>ⲁⲛⲇⲣⲉⲁⲥ</t>
   </si>
   <si>
-    <t>ⲓⲁⲕⲱⲃⲟⲥ</t>
-  </si>
-  <si>
     <t>ⲍⲉⲃⲉⲇⲁⲓⲟⲥ</t>
   </si>
   <si>
@@ -386,9 +380,6 @@
     <t>ⲥⲓⲇⲱⲛ</t>
   </si>
   <si>
-    <t>ⲡⲣⲟⲥⲕⲁⲣⲧⲉⲣⲓ</t>
-  </si>
-  <si>
     <t>ⲙⲁⲥⲧⲓⲅⲝ</t>
   </si>
   <si>
@@ -554,9 +545,6 @@
     <t>ϩⲏⲣⲱⲇⲓⲁⲥ</t>
   </si>
   <si>
-    <t>ⲡⲓⲑⲉ</t>
-  </si>
-  <si>
     <t>ⲇⲓⲡⲛⲟⲛ</t>
   </si>
   <si>
@@ -896,9 +884,6 @@
     <t>ⲏⲥⲁⲩ</t>
   </si>
   <si>
-    <t>ⲓⲁⲕⲱⲃ</t>
-  </si>
-  <si>
     <t>ⲓⲥⲁⲁⲕ</t>
   </si>
   <si>
@@ -917,58 +902,6 @@
     <t>ⲙⲁⲕⲁⲣⲓⲍⲉ</t>
   </si>
   <si>
-    <r>
-      <t>ⲕⲟⲗⲗⲩ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ϭ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="NagHammadiLSU"/>
-        <family val="2"/>
-      </rPr>
-      <t>ⲉ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ϩ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="NagHammadiLSU"/>
-        <family val="2"/>
-      </rPr>
-      <t>ⲓⲉⲣⲉⲩⲥ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ϩ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="NagHammadiLSU"/>
-        <family val="2"/>
-      </rPr>
-      <t>ⲩⲡⲁⲣⲭⲟⲛⲧⲁ</t>
-    </r>
-  </si>
-  <si>
     <t>ⲁⲓⲧⲉⲓ</t>
   </si>
   <si>
@@ -1029,20 +962,6 @@
     <t>ⲭⲁⲣⲓⲍⲉ</t>
   </si>
   <si>
-    <r>
-      <t>ϩ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="NagHammadiLSU"/>
-        <family val="2"/>
-      </rPr>
-      <t>ⲉⲗⲗⲏⲛ</t>
-    </r>
-  </si>
-  <si>
     <t>ⲓⲟⲩⲇⲁ*</t>
   </si>
   <si>
@@ -1052,9 +971,6 @@
     <t>ⲡⲁⲣⲁⲃⲁⲥⲓⲥ</t>
   </si>
   <si>
-    <t>proskarteria?</t>
-  </si>
-  <si>
     <t>ⲁⲛⲁⲭⲱⲣⲉⲓ</t>
   </si>
   <si>
@@ -1071,13 +987,31 @@
   </si>
   <si>
     <t>ⲑⲉⲟⲇⲱⲣⲟⲥ</t>
+  </si>
+  <si>
+    <t>ⲡⲉⲓⲑⲉ</t>
+  </si>
+  <si>
+    <t>ⲡⲣⲟⲥⲕⲁⲣⲧⲉⲣⲓⲁ</t>
+  </si>
+  <si>
+    <t>ⲓⲁⲕⲱⲃ*</t>
+  </si>
+  <si>
+    <t>ϩⲉⲗⲗⲏⲛ</t>
+  </si>
+  <si>
+    <t>ϩⲩⲡⲁⲣⲭⲟⲛⲧⲁ</t>
+  </si>
+  <si>
+    <t>ⲕⲟⲗⲗⲩϭⲉ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1104,24 +1038,15 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="NagHammadiLSU"/>
-      <family val="2"/>
+      <name val="Antinoou"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="NagHammadiLSU"/>
-      <family val="2"/>
+      <name val="Antinoou"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1134,12 +1059,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1150,7 +1069,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1182,22 +1101,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1213,6 +1131,8 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1228,6 +1148,8 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1557,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C421"/>
+  <dimension ref="A1:B418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:XFD128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1570,63 +1492,63 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1">
       <c r="A4" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1">
-      <c r="A5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>128</v>
+      <c r="A5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1">
       <c r="A6" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>128</v>
+      <c r="A7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
@@ -1634,7 +1556,7 @@
     </row>
     <row r="9" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -1642,7 +1564,7 @@
     </row>
     <row r="10" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>2</v>
@@ -1650,7 +1572,7 @@
     </row>
     <row r="11" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
@@ -1658,7 +1580,7 @@
     </row>
     <row r="12" spans="1:2" s="2" customFormat="1">
       <c r="A12" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>2</v>
@@ -1666,30 +1588,30 @@
     </row>
     <row r="13" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>223</v>
+      <c r="A14" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>224</v>
+      <c r="A15" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" ht="19">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:2" s="2" customFormat="1">
+      <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1698,7 +1620,7 @@
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
@@ -1714,7 +1636,7 @@
     </row>
     <row r="19" spans="1:2" ht="19" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>2</v>
@@ -1722,38 +1644,38 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>226</v>
+      <c r="A21" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>288</v>
+      <c r="A23" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1762,7 +1684,7 @@
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>2</v>
@@ -1785,7 +1707,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" customHeight="1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1794,47 +1716,47 @@
     </row>
     <row r="29" spans="1:2" ht="19" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>184</v>
+      <c r="A30" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>193</v>
+      <c r="A31" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19">
-      <c r="A34" s="4" t="s">
-        <v>227</v>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>2</v>
@@ -1842,7 +1764,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>2</v>
@@ -1850,23 +1772,23 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>123</v>
+      <c r="A37" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>212</v>
+      <c r="A38" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>2</v>
@@ -1882,7 +1804,7 @@
     </row>
     <row r="40" spans="1:2" s="2" customFormat="1">
       <c r="A40" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>2</v>
@@ -1890,7 +1812,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>2</v>
@@ -1898,7 +1820,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>2</v>
@@ -1914,7 +1836,7 @@
     </row>
     <row r="44" spans="1:2" ht="15" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>2</v>
@@ -1922,7 +1844,7 @@
     </row>
     <row r="45" spans="1:2" ht="19" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>2</v>
@@ -1930,7 +1852,7 @@
     </row>
     <row r="46" spans="1:2" ht="19" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>2</v>
@@ -1938,23 +1860,23 @@
     </row>
     <row r="47" spans="1:2" ht="19" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" customHeight="1">
-      <c r="A48" s="4" t="s">
-        <v>137</v>
+      <c r="A48" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" customHeight="1">
-      <c r="A49" s="4" t="s">
-        <v>228</v>
+      <c r="A49" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>2</v>
@@ -1962,7 +1884,7 @@
     </row>
     <row r="50" spans="1:2" ht="19" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>2</v>
@@ -1978,7 +1900,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>2</v>
@@ -2002,15 +1924,15 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="19" customHeight="1">
-      <c r="A56" s="4" t="s">
-        <v>229</v>
+      <c r="A56" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>2</v>
@@ -2018,7 +1940,7 @@
     </row>
     <row r="57" spans="1:2" ht="19" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>2</v>
@@ -2026,22 +1948,22 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1">
-      <c r="A59" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="B59" s="7" t="s">
+      <c r="A59" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2049,10 +1971,10 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="19" customHeight="1">
-      <c r="A61" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B61" s="7" t="s">
+      <c r="A61" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2066,15 +1988,15 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" customHeight="1">
-      <c r="A64" s="4" t="s">
-        <v>303</v>
+      <c r="A64" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>2</v>
@@ -2082,15 +2004,15 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" customHeight="1">
-      <c r="A66" s="4" t="s">
-        <v>200</v>
+      <c r="A66" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>2</v>
@@ -2098,7 +2020,7 @@
     </row>
     <row r="67" spans="1:2" ht="15" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>2</v>
@@ -2114,30 +2036,30 @@
     </row>
     <row r="69" spans="1:2" ht="19" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A70" s="4" t="s">
-        <v>232</v>
+      <c r="A70" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" customHeight="1">
-      <c r="A71" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="B71" s="7" t="s">
+      <c r="A71" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -2145,8 +2067,8 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" customHeight="1">
-      <c r="A73" s="4" t="s">
-        <v>304</v>
+      <c r="A73" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>2</v>
@@ -2154,15 +2076,15 @@
     </row>
     <row r="74" spans="1:2" ht="19" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A75" s="4" t="s">
-        <v>104</v>
+      <c r="A75" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>2</v>
@@ -2170,7 +2092,7 @@
     </row>
     <row r="76" spans="1:2" ht="19" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>2</v>
@@ -2178,15 +2100,15 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19">
-      <c r="A78" s="4" t="s">
-        <v>305</v>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>2</v>
@@ -2194,7 +2116,7 @@
     </row>
     <row r="79" spans="1:2" ht="19" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>2</v>
@@ -2202,119 +2124,119 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2" s="2" customFormat="1">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" customHeight="1">
-      <c r="A82" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="19">
-      <c r="A83" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B83" s="7" t="s">
+      <c r="A82" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="A84" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="19" customHeight="1">
-      <c r="A85" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="7" t="s">
+      <c r="A85" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A86" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="B86" s="7" t="s">
+      <c r="A86" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A87" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B87" s="7" t="s">
+      <c r="A87" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A88" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B88" s="7" t="s">
+      <c r="A88" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A89" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B89" s="7" t="s">
+      <c r="A89" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A90" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B90" s="7" t="s">
+      <c r="A90" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A91" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B91" s="7" t="s">
+      <c r="A91" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A92" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B92" s="7" t="s">
+      <c r="A92" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A94" s="4" t="s">
-        <v>236</v>
+      <c r="A94" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>2</v>
@@ -2322,31 +2244,31 @@
     </row>
     <row r="95" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A96" s="4" t="s">
-        <v>307</v>
+      <c r="A96" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A97" t="s">
-        <v>237</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="A97" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" customHeight="1">
-      <c r="A98" s="4" t="s">
-        <v>197</v>
+      <c r="A98" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>2</v>
@@ -2354,14 +2276,14 @@
     </row>
     <row r="99" spans="1:2" ht="19" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" customHeight="1">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -2378,79 +2300,79 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="19">
-      <c r="A103" s="10" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" customHeight="1">
-      <c r="A104" s="4" t="s">
-        <v>308</v>
+      <c r="A104" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="19" customHeight="1">
-      <c r="A105" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="B105" s="7" t="s">
+      <c r="A105" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="19" customHeight="1">
-      <c r="A107" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B107" s="7" t="s">
+      <c r="A107" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="19" customHeight="1">
-      <c r="A108" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" s="2" customFormat="1" ht="19">
-      <c r="A109" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B109" s="7" t="s">
+      <c r="A108" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" s="2" customFormat="1">
+      <c r="A109" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A110" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B110" s="7" t="s">
+      <c r="A110" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="2" customFormat="1">
       <c r="A111" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>2</v>
@@ -2458,7 +2380,7 @@
     </row>
     <row r="112" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>2</v>
@@ -2466,17 +2388,17 @@
     </row>
     <row r="113" spans="1:2" ht="15" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="19" customHeight="1">
-      <c r="A114" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B114" s="7" t="s">
+      <c r="A114" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2489,31 +2411,31 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" customHeight="1">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="19">
-      <c r="A117" s="4" t="s">
-        <v>310</v>
+    <row r="117" spans="1:2">
+      <c r="A117" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" customHeight="1">
-      <c r="A118" s="4" t="s">
-        <v>241</v>
+      <c r="A118" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -2521,8 +2443,8 @@
       </c>
     </row>
     <row r="120" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A120" s="4" t="s">
-        <v>311</v>
+      <c r="A120" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>2</v>
@@ -2530,23 +2452,23 @@
     </row>
     <row r="121" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15" customHeight="1">
-      <c r="A122" s="4" t="s">
-        <v>287</v>
+      <c r="A122" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" customHeight="1">
-      <c r="A123" s="4" t="s">
-        <v>295</v>
+      <c r="A123" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>2</v>
@@ -2554,41 +2476,41 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15" customHeight="1">
-      <c r="A125" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B125" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="19">
-      <c r="A126" s="4" t="s">
-        <v>243</v>
+      <c r="A125" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A127" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="B127" s="7" t="s">
+      <c r="A127" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="2" customFormat="1">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2602,7 +2524,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>2</v>
@@ -2610,15 +2532,15 @@
     </row>
     <row r="131" spans="1:2" ht="19" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" customHeight="1">
-      <c r="A132" s="4" t="s">
-        <v>245</v>
+      <c r="A132" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>2</v>
@@ -2633,10 +2555,10 @@
       </c>
     </row>
     <row r="134" spans="1:2" s="2" customFormat="1">
-      <c r="A134" t="s">
+      <c r="A134" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2649,47 +2571,47 @@
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B136" s="7" t="s">
+      <c r="A136" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A137" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B137" s="7" t="s">
+      <c r="A137" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" customHeight="1">
-      <c r="A138" s="4" t="s">
-        <v>246</v>
+      <c r="A138" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A139" s="4" t="s">
-        <v>297</v>
+      <c r="A139" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A140" s="4" t="s">
-        <v>247</v>
+      <c r="A140" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:2" s="2" customFormat="1" ht="14" customHeight="1">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -2698,30 +2620,30 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="19">
-      <c r="A143" s="4" t="s">
-        <v>179</v>
+    <row r="143" spans="1:2">
+      <c r="A143" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="19">
-      <c r="A144" s="4" t="s">
-        <v>248</v>
+    <row r="144" spans="1:2">
+      <c r="A144" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" customHeight="1">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -2730,25 +2652,25 @@
     </row>
     <row r="146" spans="1:2" ht="15" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15" customHeight="1">
-      <c r="A147" s="4" t="s">
-        <v>249</v>
+      <c r="A147" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A148" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B148" s="7" t="s">
+      <c r="A148" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2762,7 +2684,7 @@
     </row>
     <row r="150" spans="1:2" ht="19" customHeight="1">
       <c r="A150" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>2</v>
@@ -2777,32 +2699,32 @@
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" customHeight="1">
-      <c r="A152" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B152" s="7" t="s">
+      <c r="A152" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15" customHeight="1">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="19">
-      <c r="A154" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B154" s="7" t="s">
+    <row r="154" spans="1:2">
+      <c r="A154" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>2</v>
@@ -2810,7 +2732,7 @@
     </row>
     <row r="156" spans="1:2" ht="15" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>2</v>
@@ -2818,7 +2740,7 @@
     </row>
     <row r="157" spans="1:2" ht="15" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>2</v>
@@ -2826,31 +2748,31 @@
     </row>
     <row r="158" spans="1:2" ht="15" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>198</v>
-      </c>
-      <c r="B159" t="s">
+      <c r="A159" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="19" customHeight="1">
-      <c r="A160" t="s">
-        <v>256</v>
-      </c>
-      <c r="B160" t="s">
+      <c r="A160" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>2</v>
@@ -2888,9 +2810,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="19">
-      <c r="A166" s="4" t="s">
-        <v>199</v>
+    <row r="166" spans="1:2">
+      <c r="A166" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>2</v>
@@ -2898,7 +2820,7 @@
     </row>
     <row r="167" spans="1:2" s="2" customFormat="1">
       <c r="A167" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>2</v>
@@ -2906,7 +2828,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>2</v>
@@ -2914,7 +2836,7 @@
     </row>
     <row r="169" spans="1:2" ht="15" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>2</v>
@@ -2922,7 +2844,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>2</v>
@@ -2936,17 +2858,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" s="2" customFormat="1" ht="19">
-      <c r="A172" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="B172" s="7" t="s">
+    <row r="172" spans="1:2" s="2" customFormat="1">
+      <c r="A172" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="19" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>2</v>
@@ -2954,7 +2876,7 @@
     </row>
     <row r="174" spans="1:2" ht="15" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>2</v>
@@ -2962,7 +2884,7 @@
     </row>
     <row r="175" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>2</v>
@@ -2970,7 +2892,7 @@
     </row>
     <row r="176" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>2</v>
@@ -2978,55 +2900,55 @@
     </row>
     <row r="177" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A178" s="4" t="s">
-        <v>93</v>
+      <c r="A178" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A179" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B179" s="7" t="s">
+      <c r="A179" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A180" s="7" t="s">
+      <c r="A180" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A181" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B181" s="7" t="s">
+      <c r="A181" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A182" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="B182" s="7" t="s">
+      <c r="A182" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>2</v>
@@ -3034,7 +2956,7 @@
     </row>
     <row r="184" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>2</v>
@@ -3042,7 +2964,7 @@
     </row>
     <row r="185" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>2</v>
@@ -3050,7 +2972,7 @@
     </row>
     <row r="186" spans="1:2" s="2" customFormat="1">
       <c r="A186" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>2</v>
@@ -3058,33 +2980,33 @@
     </row>
     <row r="187" spans="1:2" s="2" customFormat="1">
       <c r="A187" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:2" s="2" customFormat="1">
-      <c r="A188" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B188" s="5" t="s">
+      <c r="A188" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="19" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A190" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B190" s="7" t="s">
+      <c r="A190" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3098,29 +3020,29 @@
     </row>
     <row r="192" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A192" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" s="2" customFormat="1">
+    <row r="193" spans="1:2" s="2" customFormat="1">
       <c r="A193" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="194" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A194" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" s="2" customFormat="1">
+    <row r="195" spans="1:2" s="2" customFormat="1">
       <c r="A195" s="3" t="s">
         <v>41</v>
       </c>
@@ -3128,15 +3050,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" s="2" customFormat="1">
+    <row r="196" spans="1:2" s="2" customFormat="1">
       <c r="A196" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" s="2" customFormat="1">
+    <row r="197" spans="1:2" s="2" customFormat="1">
       <c r="A197" s="3" t="s">
         <v>6</v>
       </c>
@@ -3144,15 +3066,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A198" s="4" t="s">
-        <v>261</v>
+    <row r="198" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A198" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" s="2" customFormat="1">
+    <row r="199" spans="1:2" s="2" customFormat="1">
       <c r="A199" s="3" t="s">
         <v>39</v>
       </c>
@@ -3160,34 +3082,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:3" s="2" customFormat="1">
+    <row r="200" spans="1:2" s="2" customFormat="1">
       <c r="A200" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:3" s="2" customFormat="1">
+    <row r="201" spans="1:2" s="2" customFormat="1">
       <c r="A201" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A202" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" s="2" customFormat="1">
+    <row r="202" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A202" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" s="2" customFormat="1">
       <c r="A203" s="3" t="s">
         <v>56</v>
       </c>
@@ -3195,41 +3114,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:3" s="2" customFormat="1">
+    <row r="204" spans="1:2" s="2" customFormat="1">
       <c r="A204" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:3" s="2" customFormat="1" ht="19">
-      <c r="A205" s="4" t="s">
-        <v>263</v>
+    <row r="205" spans="1:2" s="2" customFormat="1">
+      <c r="A205" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A206" s="4" t="s">
-        <v>205</v>
+    <row r="206" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A206" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:3" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="207" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A207" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" s="2" customFormat="1">
+    <row r="208" spans="1:2" s="2" customFormat="1">
       <c r="A208" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>2</v>
@@ -3245,7 +3164,7 @@
     </row>
     <row r="210" spans="1:2" s="2" customFormat="1">
       <c r="A210" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>2</v>
@@ -3253,7 +3172,7 @@
     </row>
     <row r="211" spans="1:2" s="2" customFormat="1">
       <c r="A211" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>2</v>
@@ -3261,7 +3180,7 @@
     </row>
     <row r="212" spans="1:2" s="2" customFormat="1">
       <c r="A212" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>2</v>
@@ -3269,23 +3188,23 @@
     </row>
     <row r="213" spans="1:2" s="2" customFormat="1">
       <c r="A213" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A214" s="4" t="s">
-        <v>315</v>
+      <c r="A214" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A215" s="4" t="s">
-        <v>316</v>
+      <c r="A215" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>2</v>
@@ -3293,23 +3212,23 @@
     </row>
     <row r="216" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A216" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" s="2" customFormat="1" ht="19">
-      <c r="A217" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B217" s="4" t="s">
+    <row r="217" spans="1:2" s="2" customFormat="1">
+      <c r="A217" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A218" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>2</v>
@@ -3317,23 +3236,23 @@
     </row>
     <row r="219" spans="1:2" s="2" customFormat="1">
       <c r="A219" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A220" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="B220" s="7" t="s">
+      <c r="A220" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B220" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A221" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>2</v>
@@ -3348,8 +3267,8 @@
       </c>
     </row>
     <row r="223" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A223" s="4" t="s">
-        <v>319</v>
+      <c r="A223" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>2</v>
@@ -3365,39 +3284,39 @@
     </row>
     <row r="225" spans="1:2" s="2" customFormat="1">
       <c r="A225" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2" s="2" customFormat="1">
-      <c r="A226" t="s">
+      <c r="A226" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2" s="2" customFormat="1">
-      <c r="A227" t="s">
+      <c r="A227" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2" s="2" customFormat="1">
-      <c r="A228" t="s">
-        <v>108</v>
-      </c>
-      <c r="B228" t="s">
+      <c r="A228" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B228" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:2" s="2" customFormat="1">
       <c r="A229" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>2</v>
@@ -3405,7 +3324,7 @@
     </row>
     <row r="230" spans="1:2" s="2" customFormat="1">
       <c r="A230" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>2</v>
@@ -3413,63 +3332,63 @@
     </row>
     <row r="231" spans="1:2" s="2" customFormat="1">
       <c r="A231" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:2" s="2" customFormat="1">
-      <c r="A232" t="s">
+      <c r="A232" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:2" s="2" customFormat="1">
       <c r="A233" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2" s="2" customFormat="1">
-      <c r="A234" t="s">
-        <v>267</v>
-      </c>
-      <c r="B234" t="s">
+      <c r="A234" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:2" s="2" customFormat="1">
       <c r="A235" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A236" s="4" t="s">
-        <v>320</v>
+      <c r="A236" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A237" t="s">
-        <v>201</v>
-      </c>
-      <c r="B237" t="s">
+      <c r="A237" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2" s="2" customFormat="1">
       <c r="A238" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>2</v>
@@ -3477,25 +3396,25 @@
     </row>
     <row r="239" spans="1:2" s="2" customFormat="1">
       <c r="A239" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:2" s="2" customFormat="1">
-      <c r="A240" t="s">
-        <v>270</v>
-      </c>
-      <c r="B240" t="s">
+      <c r="A240" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A241" t="s">
+      <c r="A241" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3508,8 +3427,8 @@
       </c>
     </row>
     <row r="243" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A243" s="4" t="s">
-        <v>268</v>
+      <c r="A243" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>2</v>
@@ -3517,7 +3436,7 @@
     </row>
     <row r="244" spans="1:2" s="2" customFormat="1">
       <c r="A244" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>2</v>
@@ -3525,7 +3444,7 @@
     </row>
     <row r="245" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A245" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>2</v>
@@ -3533,7 +3452,7 @@
     </row>
     <row r="246" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A246" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>2</v>
@@ -3541,7 +3460,7 @@
     </row>
     <row r="247" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A247" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>2</v>
@@ -3549,7 +3468,7 @@
     </row>
     <row r="248" spans="1:2" s="2" customFormat="1">
       <c r="A248" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>2</v>
@@ -3557,7 +3476,7 @@
     </row>
     <row r="249" spans="1:2" s="2" customFormat="1">
       <c r="A249" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>2</v>
@@ -3565,7 +3484,7 @@
     </row>
     <row r="250" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A250" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>2</v>
@@ -3573,7 +3492,7 @@
     </row>
     <row r="251" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A251" s="3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>2</v>
@@ -3589,7 +3508,7 @@
     </row>
     <row r="253" spans="1:2" s="2" customFormat="1">
       <c r="A253" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>2</v>
@@ -3597,7 +3516,7 @@
     </row>
     <row r="254" spans="1:2" s="2" customFormat="1">
       <c r="A254" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>2</v>
@@ -3605,7 +3524,7 @@
     </row>
     <row r="255" spans="1:2" s="2" customFormat="1">
       <c r="A255" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>2</v>
@@ -3613,39 +3532,39 @@
     </row>
     <row r="256" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A256" s="3" t="s">
-        <v>299</v>
+        <v>215</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A257" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B257" s="2" t="s">
+      <c r="A257" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B257" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A258" t="s">
-        <v>181</v>
-      </c>
-      <c r="B258" t="s">
+      <c r="A258" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B258" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:2" s="2" customFormat="1">
-      <c r="A259" t="s">
-        <v>107</v>
-      </c>
-      <c r="B259" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" s="2" customFormat="1" ht="19">
+      <c r="A259" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" s="2" customFormat="1">
       <c r="A260" s="3" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>2</v>
@@ -3653,39 +3572,39 @@
     </row>
     <row r="261" spans="1:2" s="2" customFormat="1">
       <c r="A261" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:2" s="2" customFormat="1">
-      <c r="A262" t="s">
-        <v>221</v>
-      </c>
-      <c r="B262" t="s">
+      <c r="A262" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B262" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A263" t="s">
-        <v>222</v>
-      </c>
-      <c r="B263" t="s">
+      <c r="A263" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B263" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:2" s="2" customFormat="1">
-      <c r="A264" t="s">
-        <v>89</v>
-      </c>
-      <c r="B264" t="s">
+      <c r="A264" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B264" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:2" s="2" customFormat="1">
       <c r="A265" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>9</v>
@@ -3693,14 +3612,14 @@
     </row>
     <row r="266" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A266" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A267" s="4" t="s">
+      <c r="A267" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B267" s="3" t="s">
@@ -3709,7 +3628,7 @@
     </row>
     <row r="268" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A268" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>9</v>
@@ -3717,7 +3636,7 @@
     </row>
     <row r="269" spans="1:2" s="2" customFormat="1">
       <c r="A269" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>9</v>
@@ -3725,7 +3644,7 @@
     </row>
     <row r="270" spans="1:2" s="2" customFormat="1">
       <c r="A270" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>9</v>
@@ -3733,7 +3652,7 @@
     </row>
     <row r="271" spans="1:2" s="2" customFormat="1">
       <c r="A271" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>9</v>
@@ -3741,7 +3660,7 @@
     </row>
     <row r="272" spans="1:2" s="2" customFormat="1">
       <c r="A272" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>9</v>
@@ -3749,7 +3668,7 @@
     </row>
     <row r="273" spans="1:2" s="2" customFormat="1">
       <c r="A273" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>9</v>
@@ -3757,39 +3676,39 @@
     </row>
     <row r="274" spans="1:2" s="2" customFormat="1">
       <c r="A274" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2" s="2" customFormat="1">
-      <c r="A275" s="2" t="s">
+      <c r="A275" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A276" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B276" s="7" t="s">
+      <c r="A276" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B276" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:2" s="2" customFormat="1">
       <c r="A277" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A278" s="4" t="s">
-        <v>289</v>
+      <c r="A278" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>9</v>
@@ -3803,65 +3722,65 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:2" s="2" customFormat="1" ht="19">
-      <c r="A280" s="4" t="s">
-        <v>290</v>
+    <row r="280" spans="1:2" s="2" customFormat="1">
+      <c r="A280" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A281" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B281" s="5" t="s">
+      <c r="A281" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B281" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2" s="2" customFormat="1">
-      <c r="A282" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B282" s="5" t="s">
+      <c r="A282" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B282" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:2" s="2" customFormat="1">
-      <c r="A283" s="5" t="s">
+      <c r="A283" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B283" s="5" t="s">
+      <c r="B283" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:2" s="2" customFormat="1">
-      <c r="A284" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B284" s="7" t="s">
+    <row r="284" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A284" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B284" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:2" s="2" customFormat="1">
+    <row r="285" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A285" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A286" s="4" t="s">
-        <v>322</v>
+    <row r="286" spans="1:2" s="2" customFormat="1">
+      <c r="A286" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
+    <row r="287" spans="1:2" s="2" customFormat="1">
       <c r="A287" s="3" t="s">
-        <v>63</v>
+        <v>287</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>9</v>
@@ -3869,7 +3788,7 @@
     </row>
     <row r="288" spans="1:2" s="2" customFormat="1">
       <c r="A288" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>9</v>
@@ -3877,87 +3796,87 @@
     </row>
     <row r="289" spans="1:2" s="2" customFormat="1">
       <c r="A289" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:2" s="2" customFormat="1">
+    <row r="290" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A290" s="3" t="s">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:2" s="2" customFormat="1">
+    <row r="291" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A291" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A292" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B292" s="3" t="s">
+    <row r="292" spans="1:2" s="2" customFormat="1">
+      <c r="A292" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B292" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A293" s="4" t="s">
-        <v>294</v>
+    <row r="293" spans="1:2" s="2" customFormat="1">
+      <c r="A293" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="294" spans="1:2" s="2" customFormat="1">
-      <c r="A294" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B294" s="7" t="s">
+      <c r="A294" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B294" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:2" s="2" customFormat="1">
+    <row r="295" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
       <c r="A295" s="3" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:2" s="2" customFormat="1">
+    <row r="296" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A296" s="3" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
+    <row r="297" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A297" s="3" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A298" s="4" t="s">
-        <v>168</v>
+    <row r="298" spans="1:2" s="2" customFormat="1">
+      <c r="A298" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A299" s="4" t="s">
-        <v>94</v>
+    <row r="299" spans="1:2" s="2" customFormat="1">
+      <c r="A299" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>9</v>
@@ -3965,7 +3884,7 @@
     </row>
     <row r="300" spans="1:2" s="2" customFormat="1">
       <c r="A300" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>9</v>
@@ -3973,7 +3892,7 @@
     </row>
     <row r="301" spans="1:2" s="2" customFormat="1">
       <c r="A301" s="3" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>9</v>
@@ -3981,15 +3900,15 @@
     </row>
     <row r="302" spans="1:2" s="2" customFormat="1">
       <c r="A302" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:2" s="2" customFormat="1" ht="19">
-      <c r="A303" s="4" t="s">
-        <v>206</v>
+    <row r="303" spans="1:2" s="2" customFormat="1">
+      <c r="A303" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>9</v>
@@ -3997,7 +3916,7 @@
     </row>
     <row r="304" spans="1:2" s="2" customFormat="1">
       <c r="A304" s="3" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>9</v>
@@ -4005,91 +3924,79 @@
     </row>
     <row r="305" spans="1:2" s="2" customFormat="1">
       <c r="A305" s="3" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:2" s="2" customFormat="1">
-      <c r="A306" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B306" s="3" t="s">
+      <c r="A306" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B306" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="307" spans="1:2" s="2" customFormat="1">
       <c r="A307" s="3" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:2" s="2" customFormat="1">
-      <c r="A308" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B308" s="8" t="s">
+    <row r="308" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
+      <c r="A308" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B308" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2" s="2" customFormat="1">
-      <c r="A309" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" s="2" customFormat="1">
+      <c r="A309" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A310" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" s="2" customFormat="1" ht="19" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A311" s="3" t="s">
-        <v>209</v>
+        <v>327</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:2" s="2" customFormat="1">
-      <c r="A312" t="s">
-        <v>242</v>
-      </c>
-      <c r="B312" t="s">
+      <c r="A312" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B312" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A313" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A314" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="313" spans="1:2" s="2" customFormat="1">
+      <c r="A313"/>
+      <c r="B313"/>
+    </row>
+    <row r="314" spans="1:2" s="2" customFormat="1">
+      <c r="A314"/>
+      <c r="B314"/>
     </row>
     <row r="315" spans="1:2" s="2" customFormat="1">
-      <c r="A315" t="s">
-        <v>22</v>
-      </c>
-      <c r="B315" t="s">
-        <v>0</v>
-      </c>
+      <c r="A315"/>
+      <c r="B315"/>
     </row>
     <row r="316" spans="1:2" s="2" customFormat="1">
       <c r="A316"/>
@@ -4502,18 +4409,6 @@
     <row r="418" spans="1:2" s="2" customFormat="1">
       <c r="A418"/>
       <c r="B418"/>
-    </row>
-    <row r="419" spans="1:2" s="2" customFormat="1">
-      <c r="A419"/>
-      <c r="B419"/>
-    </row>
-    <row r="420" spans="1:2" s="2" customFormat="1">
-      <c r="A420"/>
-      <c r="B420"/>
-    </row>
-    <row r="421" spans="1:2" s="2" customFormat="1">
-      <c r="A421"/>
-      <c r="B421"/>
     </row>
   </sheetData>
   <sortState ref="A1:B421">
@@ -4542,7 +4437,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -4550,7 +4445,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -4558,7 +4453,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -4566,7 +4461,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -4574,7 +4469,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -4582,7 +4477,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -4590,7 +4485,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -4598,7 +4493,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -4614,7 +4509,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -4630,7 +4525,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -4662,7 +4557,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -4670,7 +4565,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -4686,7 +4581,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -4694,7 +4589,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -4710,7 +4605,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -4726,7 +4621,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -4734,7 +4629,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -4742,7 +4637,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -4750,7 +4645,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -4766,7 +4661,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -4790,7 +4685,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -4798,7 +4693,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -4806,7 +4701,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -4830,7 +4725,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -4838,7 +4733,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -4846,7 +4741,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -4854,7 +4749,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
@@ -4870,7 +4765,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -4886,7 +4781,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
@@ -4894,7 +4789,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
@@ -4902,7 +4797,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -4918,7 +4813,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -4926,7 +4821,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -4934,7 +4829,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -4942,7 +4837,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -4950,7 +4845,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
@@ -4958,7 +4853,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
@@ -4966,7 +4861,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -4974,7 +4869,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
@@ -4998,7 +4893,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
@@ -5022,7 +4917,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
@@ -5030,7 +4925,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -5046,7 +4941,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
         <v>2</v>
@@ -5054,7 +4949,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -5062,7 +4957,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -5070,7 +4965,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -5086,7 +4981,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
         <v>9</v>
@@ -5102,7 +4997,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B71" t="s">
         <v>9</v>
@@ -5134,7 +5029,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
@@ -5150,7 +5045,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
@@ -5158,7 +5053,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
@@ -5174,7 +5069,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B80" t="s">
         <v>2</v>
@@ -5198,7 +5093,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
@@ -5206,7 +5101,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B84" t="s">
         <v>2</v>
@@ -5238,7 +5133,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B88" t="s">
         <v>2</v>
@@ -5246,7 +5141,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
@@ -5254,7 +5149,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
@@ -5270,7 +5165,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
@@ -5286,7 +5181,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
@@ -5294,7 +5189,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
@@ -5326,7 +5221,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
@@ -5334,7 +5229,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
@@ -5342,7 +5237,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
@@ -5350,7 +5245,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B102" t="s">
         <v>2</v>
@@ -5366,7 +5261,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B104" t="s">
         <v>2</v>
@@ -5374,7 +5269,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
@@ -5382,7 +5277,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B106" t="s">
         <v>9</v>
@@ -5390,7 +5285,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
@@ -5398,7 +5293,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B108" t="s">
         <v>2</v>
@@ -5406,7 +5301,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -5414,7 +5309,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
@@ -5454,7 +5349,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B115" t="s">
         <v>2</v>
@@ -5462,7 +5357,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B116" t="s">
         <v>2</v>
@@ -5470,7 +5365,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
@@ -5478,7 +5373,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
@@ -5494,7 +5389,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B120" t="s">
         <v>2</v>
@@ -5502,7 +5397,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B121" t="s">
         <v>2</v>
@@ -5510,7 +5405,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
@@ -5526,7 +5421,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B124" t="s">
         <v>2</v>
@@ -5534,7 +5429,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
@@ -5542,7 +5437,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
@@ -5550,7 +5445,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B127" t="s">
         <v>0</v>
@@ -5566,7 +5461,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
@@ -5574,7 +5469,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B130" t="s">
         <v>2</v>
@@ -5590,7 +5485,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
@@ -5606,7 +5501,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B134" t="s">
         <v>2</v>
@@ -5622,7 +5517,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B136" t="s">
         <v>2</v>
@@ -5638,7 +5533,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B138" t="s">
         <v>2</v>
@@ -5646,7 +5541,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B139" t="s">
         <v>9</v>
@@ -5654,7 +5549,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B140" t="s">
         <v>2</v>
@@ -5662,7 +5557,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B141" t="s">
         <v>2</v>
@@ -5670,7 +5565,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B142" t="s">
         <v>9</v>
@@ -5686,7 +5581,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B144" t="s">
         <v>2</v>
@@ -5694,7 +5589,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B145" t="s">
         <v>2</v>
@@ -5702,7 +5597,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B146" t="s">
         <v>2</v>
@@ -5710,7 +5605,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B147" t="s">
         <v>2</v>
@@ -5718,7 +5613,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B148" t="s">
         <v>2</v>
@@ -5758,7 +5653,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B153" t="s">
         <v>2</v>
@@ -5774,7 +5669,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B155" t="s">
         <v>2</v>
@@ -5782,7 +5677,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B156" t="s">
         <v>2</v>
@@ -5790,7 +5685,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B157" t="s">
         <v>2</v>
@@ -5822,7 +5717,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B161" t="s">
         <v>2</v>
@@ -5830,7 +5725,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B162" t="s">
         <v>2</v>
@@ -5838,7 +5733,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B163" t="s">
         <v>2</v>
@@ -5846,7 +5741,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B164" t="s">
         <v>2</v>
@@ -5854,7 +5749,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B165" t="s">
         <v>2</v>
@@ -5862,7 +5757,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B166" t="s">
         <v>2</v>
@@ -5870,7 +5765,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B167" t="s">
         <v>9</v>
@@ -5878,7 +5773,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B168" t="s">
         <v>2</v>
@@ -5894,7 +5789,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B170" t="s">
         <v>2</v>
@@ -5902,7 +5797,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B171" t="s">
         <v>9</v>
@@ -5910,7 +5805,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B172" t="s">
         <v>9</v>
@@ -5918,7 +5813,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B173" t="s">
         <v>2</v>
@@ -5926,7 +5821,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B174" t="s">
         <v>2</v>
@@ -5934,7 +5829,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B175" t="s">
         <v>2</v>
@@ -5942,7 +5837,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B176" t="s">
         <v>2</v>
@@ -5950,7 +5845,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B177" t="s">
         <v>2</v>
@@ -5958,7 +5853,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B178" t="s">
         <v>2</v>
@@ -5966,7 +5861,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B179" t="s">
         <v>2</v>
